--- a/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,94 +513,94 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.6121504216785114</v>
+        <v>1.612150390325195</v>
       </c>
       <c r="C2">
-        <v>2.0302323542954515</v>
+        <v>2.0302323016595762</v>
       </c>
       <c r="D2">
-        <v>2.3609102951473613</v>
+        <v>2.360910280500744</v>
       </c>
       <c r="E2">
-        <v>0.8672052439655642</v>
+        <v>0.86720524329012338</v>
       </c>
       <c r="H2">
-        <v>3.7091197893842258</v>
+        <v>3.7091197433644734</v>
       </c>
       <c r="J2">
-        <v>2.3478830030757516</v>
+        <v>2.3478829563070516</v>
       </c>
       <c r="K2">
-        <v>2.0554131727848857</v>
+        <v>2.0554131295499438</v>
       </c>
       <c r="L2">
-        <v>1.4553192633002994</v>
+        <v>1.4553192306548355</v>
       </c>
       <c r="N2">
-        <v>3.1417592287139873</v>
+        <v>3.141759195546812</v>
       </c>
       <c r="O2">
-        <v>-1.3195855847057378</v>
+        <v>-1.319585716525784</v>
       </c>
       <c r="V2">
-        <v>25.042600067597821</v>
+        <v>25.042599504198094</v>
       </c>
       <c r="W2">
-        <v>1.9563744128104288</v>
+        <v>1.9563743799897555</v>
       </c>
       <c r="X2">
-        <v>4.6217121856585281</v>
+        <v>4.6217120266556613</v>
       </c>
       <c r="AA2">
-        <v>1.717305876838445</v>
+        <v>1.7173058524994205</v>
       </c>
       <c r="AB2">
-        <v>1.0059910120370348</v>
+        <v>1.0059909839004195</v>
       </c>
       <c r="AC2">
-        <v>2.4682297470769941</v>
+        <v>2.4682296914176183</v>
       </c>
       <c r="AD2">
-        <v>0.56253238484477031</v>
+        <v>0.56253236924499739</v>
       </c>
       <c r="AE2">
-        <v>0.75290929799080519</v>
+        <v>0.75290929618358626</v>
       </c>
       <c r="AG2">
-        <v>1.827456127653883</v>
+        <v>1.8274560627811129</v>
       </c>
       <c r="AI2">
-        <v>1.5357228673490184</v>
+        <v>1.5357228284087947</v>
       </c>
       <c r="AJ2">
-        <v>2.3429606975122086</v>
+        <v>2.3429606762499895</v>
       </c>
       <c r="AK2">
-        <v>1.0958396041039893</v>
+        <v>1.0958395824748344</v>
       </c>
       <c r="AL2">
-        <v>3.4629604434812382</v>
+        <v>3.4629605517363862</v>
       </c>
       <c r="AM2">
-        <v>2.2856003193907162</v>
+        <v>2.28560027255413</v>
       </c>
       <c r="AO2">
-        <v>2.8477260628507342</v>
+        <v>2.8477259834458031</v>
       </c>
       <c r="AQ2">
-        <v>-2.2504491322103801</v>
+        <v>-2.2504490044293597</v>
       </c>
       <c r="AS2">
-        <v>6.9102978428602668</v>
+        <v>6.9102980154175917</v>
       </c>
       <c r="AV2">
-        <v>0.8709436979074392</v>
+        <v>0.8709436621455221</v>
       </c>
       <c r="AW2">
-        <v>0.91589502464433492</v>
+        <v>0.91589498059677554</v>
       </c>
       <c r="AX2">
-        <v>1.6311598157364249</v>
+        <v>1.6311598669765737</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -613,85 +608,85 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.0706832078942581</v>
+        <v>2.0706831703249988</v>
       </c>
       <c r="C3">
-        <v>1.1349147072451329</v>
+        <v>1.134914683524189</v>
       </c>
       <c r="E3">
-        <v>3.5468214159294256</v>
+        <v>3.5468214016200901</v>
       </c>
       <c r="F3">
-        <v>1.0326336963260558</v>
+        <v>1.0326336589684648</v>
       </c>
       <c r="G3">
-        <v>2.3123039687068729</v>
+        <v>2.3123039587331027</v>
       </c>
       <c r="J3">
-        <v>2.5233008736781342</v>
+        <v>2.523300829514934</v>
       </c>
       <c r="R3">
-        <v>1.2542002616962062</v>
+        <v>1.2542003895710117</v>
       </c>
       <c r="AA3">
-        <v>1.0066238218390866</v>
+        <v>1.0066237978525856</v>
       </c>
       <c r="AB3">
-        <v>1.0515414946230608</v>
+        <v>1.0515414709269515</v>
       </c>
       <c r="AC3">
-        <v>0.89708722274503927</v>
+        <v>0.89708716724842952</v>
       </c>
       <c r="AD3">
-        <v>1.4563596608904636</v>
+        <v>1.4563596295355907</v>
       </c>
       <c r="AE3">
-        <v>1.2170476467588389</v>
+        <v>1.2170476120121532</v>
       </c>
       <c r="AF3">
-        <v>2.382574995247186</v>
+        <v>2.3825749616603544</v>
       </c>
       <c r="AG3">
-        <v>1.8730963969930268</v>
+        <v>1.8730963632465256</v>
       </c>
       <c r="AH3">
-        <v>-0.16137206841222274</v>
+        <v>-0.16137195173765961</v>
       </c>
       <c r="AI3">
-        <v>1.3206243038086063</v>
+        <v>1.3206242810888453</v>
       </c>
       <c r="AJ3">
-        <v>1.8254969268483774</v>
+        <v>1.8254969193893438</v>
       </c>
       <c r="AK3">
-        <v>0.97743331929459809</v>
+        <v>0.97743330281475593</v>
       </c>
       <c r="AL3">
-        <v>5.2732504495907762</v>
+        <v>5.2732503975120757</v>
       </c>
       <c r="AM3">
-        <v>3.0703321241663653</v>
+        <v>3.0703320596819372</v>
       </c>
       <c r="AN3">
-        <v>9.4680347232596496E-2</v>
+        <v>9.4680334922903953E-2</v>
       </c>
       <c r="AO3">
-        <v>3.9315875526162332</v>
+        <v>3.9315874739935293</v>
       </c>
       <c r="AS3">
-        <v>4.8396091283074849</v>
+        <v>4.8396089073716677</v>
       </c>
       <c r="AU3">
-        <v>-2.9737230966664905</v>
+        <v>-2.9737223567261037</v>
       </c>
       <c r="AV3">
-        <v>1.1750064942536986</v>
+        <v>1.1750064133956104</v>
       </c>
       <c r="AW3">
-        <v>0.13992892999576295</v>
+        <v>0.13992886984149155</v>
       </c>
       <c r="AX3">
-        <v>1.0310820501079565</v>
+        <v>1.0310821018443881</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,38 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.612150390325195</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.0302323016595762</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.360910280500744</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.86720524329012338</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.7091197433644734</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.3478829563070516</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.0554131295499438</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.4553192306548355</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.141759195546812</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-1.319585716525784</v>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="V2">
         <v>25.042599504198094</v>
@@ -552,43 +462,55 @@
         <v>4.6217120266556613</v>
       </c>
       <c r="AA2">
-        <v>1.7173058524994205</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.0059909839004195</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.4682296914176183</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.56253236924499739</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.75290929618358626</v>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.8274560627811129</v>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.5357228284087947</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.3429606762499895</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.0958395824748344</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.4629605517363862</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.28560027255413</v>
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.8477259834458031</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-2.2504490044293597</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>6.9102980154175917</v>
@@ -604,74 +526,107 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.0706831703249988</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.134914683524189</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.5468214016200901</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.0326336589684648</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.3123039587331027</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.523300829514934</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.2542003895710117</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.0066237978525856</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.0515414709269515</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.89708716724842952</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.4563596295355907</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.2170476120121532</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.3825749616603544</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.8730963632465256</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-0.16137195173765961</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.3206242810888453</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.8254969193893438</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.97743330281475593</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>5.2732503975120757</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.0703320596819372</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.4680334922903953E-2</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.9315874739935293</v>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>4.8396089073716677</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.8075001379354978</v>
-      </c>
-      <c r="C2">
-        <v>2.2742185271217337</v>
-      </c>
-      <c r="D2">
-        <v>1.736568047293447</v>
+        <v>0.48523255723582637</v>
       </c>
       <c r="E2">
-        <v>1.1253810289384245</v>
+        <v>1.2966861758135664</v>
       </c>
       <c r="H2">
         <v>3.7614550047612774</v>
@@ -612,14 +601,11 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2.3203229126020855</v>
-      </c>
       <c r="C3">
-        <v>1.3078172908215173</v>
-      </c>
-      <c r="E3">
-        <v>4.1584401010854268</v>
+        <v>2.1896109654431584</v>
+      </c>
+      <c r="D3">
+        <v>0.90151995643308558</v>
       </c>
       <c r="F3">
         <v>1.1182324694917429</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.8075001379354978</v>
+        <v>2.9805591570685417</v>
       </c>
       <c r="C2">
-        <v>2.2742185271217337</v>
+        <v>0.48523255723582637</v>
       </c>
       <c r="D2">
-        <v>1.736568047293447</v>
-      </c>
-      <c r="E2">
-        <v>1.1253810289384245</v>
+        <v>2.6331652514168118</v>
       </c>
       <c r="H2">
         <v>3.7614550047612774</v>
@@ -612,14 +604,11 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2.3203229126020855</v>
-      </c>
-      <c r="C3">
-        <v>1.3078172908215173</v>
+      <c r="D3">
+        <v>3.7740472446499171</v>
       </c>
       <c r="E3">
-        <v>4.1584401010854268</v>
+        <v>0.90151995643308558</v>
       </c>
       <c r="F3">
         <v>1.1182324694917429</v>

--- a/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness at 15 deg.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,174 +513,180 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1.8075001068531003</v>
+      </c>
+      <c r="C2">
+        <v>2.274218474691164</v>
+      </c>
+      <c r="D2">
+        <v>1.7365680241330457</v>
+      </c>
+      <c r="E2">
+        <v>1.1253810183483952</v>
+      </c>
+      <c r="H2">
+        <v>3.761454960211402</v>
+      </c>
+      <c r="J2">
+        <v>2.6556560102216684</v>
+      </c>
+      <c r="K2">
+        <v>2.8352021933559994</v>
+      </c>
+      <c r="L2">
+        <v>1.7085386711544917</v>
+      </c>
+      <c r="N2">
         <v>2.9805591570685417</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>0.48523255723582637</v>
       </c>
-      <c r="D2">
+      <c r="V2">
+        <v>2.5797652719221014</v>
+      </c>
+      <c r="W2">
+        <v>2.0303018765715324</v>
+      </c>
+      <c r="X2">
+        <v>3.2979348961563995</v>
+      </c>
+      <c r="AA2">
+        <v>1.9090522815535322</v>
+      </c>
+      <c r="AB2">
+        <v>1.1491187511891263</v>
+      </c>
+      <c r="AC2">
+        <v>1.7226165521947971</v>
+      </c>
+      <c r="AD2">
+        <v>0.71624938765805091</v>
+      </c>
+      <c r="AE2">
+        <v>1.6400859837776103</v>
+      </c>
+      <c r="AG2">
+        <v>2.0981536084560224</v>
+      </c>
+      <c r="AI2">
+        <v>1.7929809462931072</v>
+      </c>
+      <c r="AJ2">
+        <v>2.7703153712037993</v>
+      </c>
+      <c r="AK2">
+        <v>1.2371854670610594</v>
+      </c>
+      <c r="AL2">
+        <v>2.4774752287319228</v>
+      </c>
+      <c r="AM2">
         <v>2.6331652514168118</v>
       </c>
-      <c r="H2">
-        <v>3.7614550047612774</v>
-      </c>
-      <c r="J2">
-        <v>2.6556560557440432</v>
-      </c>
-      <c r="K2">
-        <v>2.8352022375048209</v>
-      </c>
-      <c r="L2">
-        <v>1.7085387077227057</v>
-      </c>
-      <c r="N2">
-        <v>2.9805591827681477</v>
-      </c>
-      <c r="O2">
-        <v>0.48523255159446721</v>
-      </c>
-      <c r="V2">
-        <v>2.5797653138773304</v>
-      </c>
-      <c r="W2">
-        <v>2.030301906405124</v>
-      </c>
-      <c r="X2">
-        <v>3.2979349617983149</v>
-      </c>
-      <c r="AA2">
-        <v>1.9090523048764756</v>
-      </c>
-      <c r="AB2">
-        <v>1.1491187799117246</v>
-      </c>
-      <c r="AC2">
-        <v>1.7226165746253141</v>
-      </c>
-      <c r="AD2">
-        <v>0.71624939792107967</v>
-      </c>
-      <c r="AE2">
-        <v>1.6400860091194891</v>
-      </c>
-      <c r="AG2">
-        <v>2.0981536636298941</v>
-      </c>
-      <c r="AI2">
-        <v>1.7929809849415712</v>
-      </c>
-      <c r="AJ2">
-        <v>2.7703153952879918</v>
-      </c>
-      <c r="AK2">
-        <v>1.2371854927455535</v>
-      </c>
-      <c r="AL2">
-        <v>2.4774752643651698</v>
-      </c>
-      <c r="AM2">
-        <v>2.6331652950146744</v>
-      </c>
       <c r="AO2">
-        <v>2.3820009216561573</v>
+        <v>2.3820008892003628</v>
       </c>
       <c r="AQ2">
-        <v>1.2966861949603925</v>
+        <v>1.2966861758135664</v>
       </c>
       <c r="AS2">
-        <v>2.3247200927996277</v>
+        <v>2.3247200537720927</v>
       </c>
       <c r="AV2">
-        <v>1.1367382023354786</v>
+        <v>1.1367381831847834</v>
       </c>
       <c r="AW2">
-        <v>1.4011535040566501</v>
+        <v>1.4011534795417155</v>
       </c>
       <c r="AX2">
-        <v>1.3468841467007198</v>
+        <v>1.3468841196233252</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="B3">
+        <v>2.3203228753699792</v>
+      </c>
+      <c r="C3">
+        <v>1.3078172677614242</v>
+      </c>
+      <c r="E3">
+        <v>4.1584401001186109</v>
+      </c>
+      <c r="F3">
+        <v>1.1182324433878252</v>
+      </c>
+      <c r="G3">
+        <v>2.5486049459190614</v>
+      </c>
+      <c r="J3">
+        <v>2.8298673436432344</v>
+      </c>
+      <c r="R3">
+        <v>2.1896109654431584</v>
+      </c>
+      <c r="AA3">
+        <v>1.1871499832712784</v>
+      </c>
+      <c r="AB3">
+        <v>1.2265284246580506</v>
+      </c>
+      <c r="AC3">
+        <v>1.1850956629138416</v>
+      </c>
+      <c r="AD3">
+        <v>1.6669279412689169</v>
+      </c>
+      <c r="AE3">
+        <v>1.2157464064950863</v>
+      </c>
+      <c r="AF3">
+        <v>2.7577537140546187</v>
+      </c>
+      <c r="AG3">
+        <v>2.2013296731224359</v>
+      </c>
+      <c r="AH3">
+        <v>1.5983212818130994</v>
+      </c>
+      <c r="AI3">
+        <v>1.4269563690237692</v>
+      </c>
+      <c r="AJ3">
+        <v>2.3803792923247808</v>
+      </c>
+      <c r="AK3">
+        <v>1.1922399604152878</v>
+      </c>
+      <c r="AL3">
+        <v>3.6989598082002506</v>
+      </c>
+      <c r="AM3">
         <v>3.7740472446499171</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>0.90151995643308558</v>
       </c>
-      <c r="F3">
-        <v>1.1182324694917429</v>
-      </c>
-      <c r="G3">
-        <v>2.5486049749515169</v>
-      </c>
-      <c r="J3">
-        <v>2.8298673868972388</v>
-      </c>
-      <c r="R3">
-        <v>2.1896110082611648</v>
-      </c>
-      <c r="AA3">
-        <v>1.1871500076704904</v>
-      </c>
-      <c r="AB3">
-        <v>1.2265284514113106</v>
-      </c>
-      <c r="AC3">
-        <v>1.1850956821588103</v>
-      </c>
-      <c r="AD3">
-        <v>1.66692796404285</v>
-      </c>
-      <c r="AE3">
-        <v>1.2157464327483707</v>
-      </c>
-      <c r="AF3">
-        <v>2.7577537619558425</v>
-      </c>
-      <c r="AG3">
-        <v>2.2013297091460662</v>
-      </c>
-      <c r="AH3">
-        <v>1.5983213371914669</v>
-      </c>
-      <c r="AI3">
-        <v>1.4269563881909828</v>
-      </c>
-      <c r="AJ3">
-        <v>2.380379316506215</v>
-      </c>
-      <c r="AK3">
-        <v>1.1922399827741021</v>
-      </c>
-      <c r="AL3">
-        <v>3.6989598530700514</v>
-      </c>
-      <c r="AM3">
-        <v>3.7740473386110507</v>
-      </c>
-      <c r="AN3">
-        <v>0.90151996868443263</v>
-      </c>
       <c r="AO3">
-        <v>4.1065968404799111</v>
+        <v>4.1065967526819609</v>
       </c>
       <c r="AS3">
-        <v>2.0552683008179726</v>
+        <v>2.0552682622611869</v>
       </c>
       <c r="AU3">
-        <v>2.7249131590383238</v>
+        <v>2.724913121982524</v>
       </c>
       <c r="AV3">
-        <v>1.5340055682437961</v>
+        <v>1.5340055261409151</v>
       </c>
       <c r="AW3">
-        <v>1.1618270835417237</v>
+        <v>1.1618270597472971</v>
       </c>
       <c r="AX3">
-        <v>1.4825136841281834</v>
+        <v>1.4825136646861152</v>
       </c>
     </row>
   </sheetData>
